--- a/Media/策划还原案/字典表设计/兵种字典表/兵种.xlsx
+++ b/Media/策划还原案/字典表设计/兵种字典表/兵种.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12020" yWindow="1720" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="9660" yWindow="4040" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,306 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>马英臣 ma</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>兵种名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>基础血量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">血量星级
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">攻击星级
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">连射星级
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>散射星级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">穿透星级
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">抗性星级
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>招募价格 单位：金币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">特色技能
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>开启条件
+m-n  m章n关卡后开启； </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>巨盾守卫</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpstar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attstar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanstar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuanstar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kangstar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持盾武士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火术士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1－2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2－2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3－2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -35,6 +332,39 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,13 +384,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,15 +736,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="12" max="12" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>500</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>800</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>10004</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>10010</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Media/策划还原案/字典表设计/兵种字典表/兵种.xlsx
+++ b/Media/策划还原案/字典表设计/兵种字典表/兵种.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="4040" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10560" yWindow="6940" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -191,6 +191,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>等级字典表</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L3" authorId="0">
       <text>
         <r>
@@ -211,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +325,42 @@
   </si>
   <si>
     <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leveldic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,18 +788,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,8 +840,11 @@
       <c r="M1" t="s">
         <v>20</v>
       </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -821,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -853,51 +908,96 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>1500</v>
+      </c>
       <c r="M4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>10004</v>
       </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>2000</v>
+      </c>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>10006</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>10007</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>10008</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>10009</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10010</v>
       </c>
